--- a/ValueSet-Birthweight-values.xlsx
+++ b/ValueSet-Birthweight-values.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T14:00:01+00:00</t>
+    <t>2023-03-31T14:40:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
